--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormP1.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormP1.xlsx
@@ -1256,9 +1256,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1457,6 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1487,12 +1488,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1589,6 +1584,30 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,24 +1632,6 @@
     <xf numFmtId="165" fontId="25" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,18 +1651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="19" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,6 +1680,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1754,63 +1755,60 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2171,7 +2169,7 @@
   <dimension ref="B2:AQ50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:N10"/>
+      <selection activeCell="G10" sqref="G10:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2213,12 +2211,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="201" t="s">
+      <c r="Y2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="202"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="200"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
@@ -2228,26 +2226,26 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="203" t="s">
+      <c r="I3" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="201"/>
+      <c r="Q3" s="201"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="V3" s="201"/>
+      <c r="W3" s="201"/>
+      <c r="X3" s="201"/>
+      <c r="Y3" s="201"/>
+      <c r="Z3" s="201"/>
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="2:28" ht="18" x14ac:dyDescent="0.35">
@@ -2258,28 +2256,26 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="204" t="s">
+      <c r="I4" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="205">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="202"/>
+      <c r="N4" s="202"/>
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="202"/>
+      <c r="T4" s="202"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="203"/>
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.35">
@@ -2290,28 +2286,28 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="206" t="s">
+      <c r="I5" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="207" t="s">
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="207"/>
-      <c r="V5" s="207"/>
-      <c r="W5" s="207"/>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="207"/>
-      <c r="Z5" s="207"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="205"/>
+      <c r="W5" s="205"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="205"/>
+      <c r="Z5" s="205"/>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.35">
@@ -2320,153 +2316,153 @@
     </row>
     <row r="7" spans="2:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+      <c r="N7" s="192"/>
+      <c r="O7" s="192"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="194"/>
-      <c r="S8" s="194"/>
-      <c r="T8" s="194"/>
-      <c r="U8" s="194"/>
-      <c r="V8" s="194"/>
-      <c r="W8" s="194"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="194"/>
-      <c r="Z8" s="194"/>
-      <c r="AA8" s="194"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
       <c r="AB8" s="8"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="195" t="s">
+      <c r="C9" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="197" t="s">
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="178" t="s">
+      <c r="P9" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="178"/>
+      <c r="Q9" s="179"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="192"/>
-      <c r="U9" s="192"/>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="191"/>
+      <c r="Y9" s="191"/>
+      <c r="Z9" s="191"/>
+      <c r="AA9" s="191"/>
       <c r="AB9" s="12"/>
     </row>
     <row r="10" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13"/>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="188"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="178" t="s">
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="207"/>
+      <c r="P10" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="178"/>
+      <c r="Q10" s="179"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="200"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="200"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="200"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
       <c r="AB10" s="12"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="178" t="s">
+      <c r="C11" s="206"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="178"/>
+      <c r="Q11" s="179"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="187"/>
@@ -2481,23 +2477,23 @@
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
       <c r="T12" s="187"/>
       <c r="U12" s="187"/>
       <c r="V12" s="187"/>
@@ -2510,78 +2506,78 @@
     </row>
     <row r="13" spans="2:28" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="22" t="s">
+      <c r="C14" s="188"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="192"/>
-      <c r="W14" s="192"/>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="192"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="190"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="191"/>
+      <c r="W14" s="191"/>
+      <c r="X14" s="191"/>
+      <c r="Y14" s="191"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -2595,1302 +2591,1302 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="20"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="179"/>
-      <c r="Y16" s="179"/>
-      <c r="Z16" s="179"/>
-      <c r="AA16" s="179"/>
-      <c r="AB16" s="180"/>
-    </row>
-    <row r="17" spans="2:43" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="27">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="180"/>
+      <c r="Y16" s="180"/>
+      <c r="Z16" s="180"/>
+      <c r="AA16" s="180"/>
+      <c r="AB16" s="181"/>
+    </row>
+    <row r="17" spans="2:43" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26">
         <v>2</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="181"/>
-      <c r="S17" s="29" t="s">
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="182"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="183"/>
-      <c r="AD17" s="31"/>
-    </row>
-    <row r="18" spans="2:43" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33" t="s">
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="184"/>
+      <c r="AD17" s="30"/>
+    </row>
+    <row r="18" spans="2:43" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="34" t="s">
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="184"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="184"/>
-      <c r="W18" s="184"/>
-      <c r="X18" s="184"/>
-      <c r="Y18" s="184"/>
-      <c r="Z18" s="184"/>
-      <c r="AA18" s="184"/>
-      <c r="AB18" s="185"/>
-      <c r="AD18" s="31"/>
-    </row>
-    <row r="19" spans="2:43" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="27"/>
-      <c r="C19" s="35" t="s">
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="186"/>
+      <c r="AD18" s="30"/>
+    </row>
+    <row r="19" spans="2:43" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26"/>
+      <c r="C19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="36" t="s">
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="173"/>
-    </row>
-    <row r="20" spans="2:43" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="27"/>
-      <c r="C20" s="33" t="s">
+      <c r="T19" s="173"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="173"/>
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="173"/>
+      <c r="AA19" s="173"/>
+      <c r="AB19" s="174"/>
+    </row>
+    <row r="20" spans="2:43" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="26"/>
+      <c r="C20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="174" t="s">
+      <c r="D20" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="174"/>
-      <c r="S20" s="34" t="s">
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="173"/>
-      <c r="AD20" s="31"/>
-    </row>
-    <row r="21" spans="2:43" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="37"/>
-      <c r="C21" s="38" t="s">
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
+      <c r="X20" s="173"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="174"/>
+      <c r="AD20" s="30"/>
+    </row>
+    <row r="21" spans="2:43" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="175" t="s">
+      <c r="D21" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="39" t="s">
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T21" s="176"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="176"/>
-      <c r="W21" s="176"/>
-      <c r="X21" s="176"/>
-      <c r="Y21" s="176"/>
-      <c r="Z21" s="176"/>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="178"/>
     </row>
     <row r="22" spans="2:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="43"/>
     </row>
     <row r="23" spans="2:43" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="165" t="s">
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="165"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46" t="s">
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="167"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="167"/>
-      <c r="X23" s="167"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
     </row>
     <row r="24" spans="2:43" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="40"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
     </row>
     <row r="25" spans="2:43" ht="22.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40"/>
-      <c r="C25" s="168" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169" t="s">
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169" t="s">
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="169"/>
-      <c r="Q25" s="169"/>
-      <c r="R25" s="169"/>
-      <c r="S25" s="169" t="s">
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="170"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="T25" s="169"/>
-      <c r="U25" s="169"/>
-      <c r="V25" s="169" t="s">
+      <c r="T25" s="170"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="W25" s="169"/>
-      <c r="X25" s="169"/>
-      <c r="Y25" s="156" t="s">
+      <c r="W25" s="170"/>
+      <c r="X25" s="170"/>
+      <c r="Y25" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="156"/>
-      <c r="AB25" s="157"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
     </row>
     <row r="26" spans="2:43" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="40"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="160" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="161" t="s">
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="161" t="s">
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="161"/>
-      <c r="S26" s="161"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="161"/>
-      <c r="V26" s="161"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="161"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="162"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="162"/>
-      <c r="AP26" s="162"/>
-      <c r="AQ26" s="162"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="159"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="159"/>
+      <c r="AJ26" s="159"/>
+      <c r="AK26" s="159"/>
+      <c r="AL26" s="159"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="159"/>
+      <c r="AO26" s="159"/>
+      <c r="AP26" s="159"/>
+      <c r="AQ26" s="159"/>
     </row>
     <row r="27" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="117"/>
-      <c r="C27" s="139" t="s">
+      <c r="B27" s="116"/>
+      <c r="C27" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="122" t="s">
+      <c r="E27" s="133"/>
+      <c r="F27" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125">
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124">
         <f>T17</f>
         <v>0</v>
       </c>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126">
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125">
         <f>T19</f>
         <v>0</v>
       </c>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="152">
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="162">
         <f>T18</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="126">
+      <c r="Q27" s="162"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="125">
         <f>J27+M27+P27+S27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="129">
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="128">
         <f t="shared" ref="Y27:Y34" si="0">V27-S27</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="129"/>
-      <c r="AA27" s="129"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
     </row>
     <row r="28" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="117"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="106" t="s">
+      <c r="B28" s="116"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109">
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108">
         <f>T20</f>
         <v>0</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111" t="s">
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="112">
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="111">
         <f>T21</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="146">
+      <c r="Q28" s="111"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="147">
         <f>J28+P28+S28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="97"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="97">
+      <c r="W28" s="136"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
     </row>
     <row r="29" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="117"/>
-      <c r="C29" s="139" t="s">
+      <c r="B29" s="116"/>
+      <c r="C29" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="122" t="s">
+      <c r="E29" s="150"/>
+      <c r="F29" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="126"/>
-      <c r="V29" s="126">
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125">
         <f>J29+M29+P29+S29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="126"/>
-      <c r="X29" s="126"/>
-      <c r="Y29" s="128">
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="129"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
     </row>
     <row r="30" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="117"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="106" t="s">
+      <c r="B30" s="116"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="111" t="s">
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110">
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109">
         <f>J30+P30+S30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="146">
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="147">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
     </row>
     <row r="31" spans="2:43" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="117"/>
-      <c r="C31" s="139" t="s">
+      <c r="B31" s="116"/>
+      <c r="C31" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="122" t="s">
+      <c r="E31" s="133"/>
+      <c r="F31" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126">
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125">
         <f>J31+M31+P31+S31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="128">
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="129"/>
-      <c r="AA31" s="129"/>
-      <c r="AB31" s="130"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
     </row>
     <row r="32" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="117"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="131" t="s">
+      <c r="B32" s="116"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="136" t="s">
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135">
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142">
         <f>J32+P32+S32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="114">
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
+      <c r="Y32" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="115"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
     </row>
     <row r="33" spans="2:33" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="117"/>
-      <c r="C33" s="118" t="s">
+      <c r="B33" s="116"/>
+      <c r="C33" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="122" t="s">
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="125">
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124">
         <f>J27+J29+J31</f>
         <v>0</v>
       </c>
-      <c r="K33" s="126"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127">
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126">
         <f>M27+M29+M31</f>
         <v>0</v>
       </c>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127">
+      <c r="N33" s="126"/>
+      <c r="O33" s="126"/>
+      <c r="P33" s="126">
         <f>P27+P29+P31</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="126">
+      <c r="Q33" s="126"/>
+      <c r="R33" s="126"/>
+      <c r="S33" s="125">
         <f>S27+S29+S31</f>
         <v>0</v>
       </c>
-      <c r="T33" s="126"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126">
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125">
         <f>V27+V29+V31</f>
         <v>0</v>
       </c>
-      <c r="W33" s="126"/>
-      <c r="X33" s="126"/>
-      <c r="Y33" s="128">
+      <c r="W33" s="125"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="129"/>
-      <c r="AA33" s="129"/>
-      <c r="AB33" s="130"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="129"/>
     </row>
     <row r="34" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="106" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109">
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="108">
         <f>J28+J30+J32</f>
         <v>0</v>
       </c>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="111" t="s">
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="112">
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="111">
         <f>P28+P30+P32</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="110">
+      <c r="Q34" s="111"/>
+      <c r="R34" s="112"/>
+      <c r="S34" s="109">
         <f>S28+S30+S32</f>
         <v>0</v>
       </c>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110">
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109">
         <f>V28+V30+V32</f>
         <v>0</v>
       </c>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="97">
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="98"/>
+      <c r="Z34" s="136"/>
+      <c r="AA34" s="136"/>
+      <c r="AB34" s="137"/>
     </row>
     <row r="35" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="32"/>
-      <c r="C35" s="99" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="101">
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="100">
         <f>ROUNDUP(SUM(J33:L34),2)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101">
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100">
         <f>ROUNDUP(SUM(M33:O34),2)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="101">
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100">
         <f>ROUNDUP(SUM(P33:R34),2)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="103">
+      <c r="Q35" s="100"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="102">
         <f>ROUNDUP(SUM(S33:U34),2)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103">
+      <c r="T35" s="102"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102">
         <f>ROUNDUP(SUM(V33:X34),2)</f>
         <v>0</v>
       </c>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="104">
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="103">
         <f>ROUNDUP(SUM(Y33:AA34),2)</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="105"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-    </row>
-    <row r="36" spans="2:33" s="62" customFormat="1" ht="9.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="92"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-    </row>
-    <row r="37" spans="2:33" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="64" t="s">
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="104"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+    </row>
+    <row r="36" spans="2:33" s="61" customFormat="1" ht="9.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="93"/>
+      <c r="AE36" s="62"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+    </row>
+    <row r="37" spans="2:33" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="67" t="s">
+      <c r="E37" s="58"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T37" s="93">
+      <c r="T37" s="94">
         <f>Y35</f>
         <v>0</v>
       </c>
-      <c r="U37" s="93"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="93"/>
-      <c r="X37" s="93"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="68"/>
-    </row>
-    <row r="38" spans="2:33" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="76"/>
-    </row>
-    <row r="39" spans="2:33" s="62" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="77"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="77"/>
-      <c r="AB39" s="68"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+      <c r="Z37" s="94"/>
+      <c r="AA37" s="94"/>
+      <c r="AB37" s="67"/>
+    </row>
+    <row r="38" spans="2:33" s="61" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="75"/>
+    </row>
+    <row r="39" spans="2:33" s="61" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="67"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B40" s="27">
+      <c r="B40" s="26">
         <v>4</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="95"/>
-      <c r="S40" s="95"/>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="95"/>
-      <c r="AA40" s="95"/>
-      <c r="AB40" s="78"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="96"/>
+      <c r="X40" s="96"/>
+      <c r="Y40" s="96"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="77"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B41" s="40"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="95"/>
-      <c r="S41" s="95"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="95"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="95"/>
-      <c r="AA41" s="95"/>
-      <c r="AB41" s="78"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
+      <c r="X41" s="96"/>
+      <c r="Y41" s="96"/>
+      <c r="Z41" s="96"/>
+      <c r="AA41" s="96"/>
+      <c r="AB41" s="77"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B42" s="40"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="80"/>
-      <c r="T42" s="80"/>
-      <c r="U42" s="80"/>
-      <c r="V42" s="80"/>
-      <c r="W42" s="80"/>
-      <c r="X42" s="80"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="80"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="78"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="79"/>
+      <c r="S42" s="79"/>
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
+      <c r="V42" s="79"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="77"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B43" s="40"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
-      <c r="T43" s="80"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="80"/>
-      <c r="W43" s="80"/>
-      <c r="X43" s="80"/>
-      <c r="Y43" s="80"/>
-      <c r="Z43" s="80"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="78"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="77"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B44" s="40"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="80"/>
-      <c r="U44" s="80"/>
-      <c r="V44" s="80"/>
-      <c r="W44" s="80"/>
-      <c r="X44" s="80"/>
-      <c r="Y44" s="80"/>
-      <c r="Z44" s="80"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="78"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="79"/>
+      <c r="AB44" s="77"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B45" s="40"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="78"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="77"/>
     </row>
     <row r="46" spans="2:33" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="40"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="66"/>
-      <c r="S46" s="66"/>
-      <c r="T46" s="96" t="s">
+      <c r="B46" s="39"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="78"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="77"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B47" s="40"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="87" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="78"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="89"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="89"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="65"/>
+      <c r="AB47" s="77"/>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="B48" s="40"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="87" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="78"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="89"/>
+      <c r="V48" s="89"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="89"/>
+      <c r="Y48" s="89"/>
+      <c r="Z48" s="89"/>
+      <c r="AA48" s="65"/>
+      <c r="AB48" s="77"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B49" s="40"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="87" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="66"/>
-      <c r="AB49" s="78"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="89"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="65"/>
+      <c r="AB49" s="77"/>
     </row>
     <row r="50" spans="2:28" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
-      <c r="Q50" s="89"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="86"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="91"/>
+      <c r="AA50" s="83"/>
+      <c r="AB50" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="133">
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="I3:Z3"/>
     <mergeCell ref="I4:W4"/>
@@ -3900,10 +3896,8 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="T11:AA11"/>
-    <mergeCell ref="G12:N12"/>
     <mergeCell ref="T12:AA12"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:N14"/>
     <mergeCell ref="T14:AA14"/>
     <mergeCell ref="C7:AA8"/>
     <mergeCell ref="C9:F9"/>
@@ -3911,9 +3905,9 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="T9:AA9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:N10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="T10:AA10"/>
+    <mergeCell ref="G10:O12"/>
     <mergeCell ref="D19:R19"/>
     <mergeCell ref="T19:AB19"/>
     <mergeCell ref="D20:R20"/>
@@ -3978,15 +3972,6 @@
     <mergeCell ref="S31:U31"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
     <mergeCell ref="Y32:AB32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:E34"/>
@@ -4001,6 +3986,15 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:E32"/>
     <mergeCell ref="Y34:AB34"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
